--- a/Time Tracker(1).xlsx
+++ b/Time Tracker(1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unity Projects\SoftwareArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56261566-0A2C-4A6D-BC5E-B01BD27101A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD17A8B-B9CC-4BD6-9B7D-AEC5A12BD6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
+    <workbookView xWindow="-21720" yWindow="-19125" windowWidth="21840" windowHeight="38640" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
   <si>
     <t>Wave requirements</t>
   </si>
@@ -710,13 +710,22 @@
   </si>
   <si>
     <t>Hours</t>
+  </si>
+  <si>
+    <t>Needs to be tested</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>To-Do</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -756,8 +765,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -776,6 +792,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -789,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -811,13 +833,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -833,7 +856,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1121,7 +1144,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1129,35 +1152,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4204571-75E2-6C43-842D-3E9152E2A192}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="104.5" customWidth="1"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>36</v>
       </c>
@@ -1180,194 +1204,219 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="7"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="7"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="7"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="7"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="10"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="7"/>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="7"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="7"/>
+    </row>
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B27" s="8"/>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="7"/>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B33" s="8"/>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="8"/>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B35" s="7"/>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B36" s="7"/>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/Time Tracker(1).xlsx
+++ b/Time Tracker(1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Documents\Unity Projects\SoftwareArchitecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD17A8B-B9CC-4BD6-9B7D-AEC5A12BD6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23182250-1CF8-4751-82BD-B907E2A2B69F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-21720" yWindow="-19125" windowWidth="21840" windowHeight="38640" xr2:uid="{DFC97FD2-4022-1548-A7B7-2F9FA8F56567}"/>
   </bookViews>
@@ -811,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -834,10 +834,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1155,7 +1156,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1171,15 +1172,15 @@
       <c r="B1" t="s">
         <v>43</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -1258,6 +1259,7 @@
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -1318,10 +1320,11 @@
       </c>
       <c r="B22" s="7"/>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="B23" s="12"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
@@ -1359,11 +1362,13 @@
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="B30" s="8"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="B31" s="8"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
@@ -1405,7 +1410,7 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="11" t="s">
+      <c r="B42" s="10" t="s">
         <v>45</v>
       </c>
     </row>
